--- a/Assigment_1/Values.xlsx
+++ b/Assigment_1/Values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hansf\Documents\GitHub\Public Media\Assigment_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF47808-0907-4BAC-A277-45621AA1EB38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC598F1E-DAB7-4C0C-AAE2-675655AED2A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{E084EF1D-9FD1-412C-9E00-4947AA2C089B}"/>
   </bookViews>
@@ -326,6 +326,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -335,18 +344,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,16 +678,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="3"/>
@@ -696,20 +696,20 @@
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="18" t="s">
+      <c r="I3" s="19"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="4:12" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="15" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -751,7 +751,7 @@
       <c r="L5" s="10"/>
     </row>
     <row r="6" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="8"/>
@@ -777,7 +777,7 @@
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="16" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="8"/>
@@ -803,7 +803,7 @@
       <c r="L9" s="8"/>
     </row>
     <row r="10" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="8"/>
@@ -829,7 +829,7 @@
       <c r="L11" s="10"/>
     </row>
     <row r="12" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="16" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="10"/>
@@ -891,7 +891,7 @@
   <dimension ref="D5:M10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:M10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -908,16 +908,16 @@
   </cols>
   <sheetData>
     <row r="5" spans="4:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6" spans="4:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D6" s="3"/>
@@ -927,15 +927,15 @@
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="18" t="s">
+      <c r="J6" s="19"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="2"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="2"/>
+      <c r="K10" s="8"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>

--- a/Assigment_1/Values.xlsx
+++ b/Assigment_1/Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hansf\Documents\GitHub\Public Media\Assigment_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC598F1E-DAB7-4C0C-AAE2-675655AED2A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E821460-7002-4426-842C-0A18FD1B455E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{E084EF1D-9FD1-412C-9E00-4947AA2C089B}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="23040" windowHeight="12204" activeTab="1" xr2:uid="{E084EF1D-9FD1-412C-9E00-4947AA2C089B}"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="1" r:id="rId1"/>
@@ -121,22 +121,22 @@
     <t>Persona</t>
   </si>
   <si>
-    <t>36 years old, gamer, love technology</t>
-  </si>
-  <si>
     <t>Hippie</t>
   </si>
   <si>
-    <t xml:space="preserve">20, millennial, activist, engage on social work </t>
-  </si>
-  <si>
     <t>Fattie</t>
   </si>
   <si>
-    <t>60 years, fat, vision and motor disabilities, 4 children and 4 grandchildren, married</t>
-  </si>
-  <si>
     <t>Nerd</t>
+  </si>
+  <si>
+    <t>36 years , gamer, love technology, single, live alone, not much social life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60 years, fat, vision and motor disabilities, 4 children and 4 grandchildren, married. </t>
+  </si>
+  <si>
+    <t>20 years, millennial, activist, engage on social work, live with parents</t>
   </si>
 </sst>
 </file>
@@ -888,16 +888,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3655D75-1894-408F-B666-975483459873}">
-  <dimension ref="D5:M10"/>
+  <dimension ref="D5:M11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="2.109375" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5546875" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="11.21875" customWidth="1"/>
@@ -905,6 +906,7 @@
     <col min="11" max="11" width="9.6640625" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" customWidth="1"/>
     <col min="13" max="13" width="13.21875" customWidth="1"/>
+    <col min="14" max="14" width="1.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="4:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -973,10 +975,10 @@
     </row>
     <row r="8" spans="4:13" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -989,10 +991,10 @@
     </row>
     <row r="9" spans="4:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="2"/>
@@ -1005,7 +1007,7 @@
     </row>
     <row r="10" spans="4:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>32</v>
@@ -1019,6 +1021,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
+    <row r="11" spans="4:13" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F6:H6"/>
